--- a/Docs/Latest/coverage_targets_2017.xlsx
+++ b/Docs/Latest/coverage_targets_2017.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="mcoverage" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>2017 Monthly Coverage targets</t>
   </si>
@@ -380,19 +380,69 @@
   </si>
   <si>
     <t>Zombo</t>
+  </si>
+  <si>
+    <t>Bunyangabu</t>
+  </si>
+  <si>
+    <t>Butebo</t>
+  </si>
+  <si>
+    <t>Kagadi</t>
+  </si>
+  <si>
+    <t>Kakumiro</t>
+  </si>
+  <si>
+    <t>Kyotera</t>
+  </si>
+  <si>
+    <t>Namisindwa</t>
+  </si>
+  <si>
+    <t>Omoro</t>
+  </si>
+  <si>
+    <t>Pakwach</t>
+  </si>
+  <si>
+    <t>Rubanda</t>
+  </si>
+  <si>
+    <t>Rukiga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -411,15 +461,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I117"/>
+  <dimension ref="A2:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,10 +852,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>515.7166666666667</v>
       </c>
       <c r="C6" s="1">
@@ -775,7 +865,7 @@
         <v>457.23333333333329</v>
       </c>
       <c r="E6" s="1">
-        <v>2445.6666666666702</v>
+        <v>2445.6666666666665</v>
       </c>
       <c r="F6" s="1">
         <v>457.23333333333329</v>
@@ -791,10 +881,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>927.5625</v>
       </c>
       <c r="C7" s="1">
@@ -820,10 +910,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>961.91666666666663</v>
       </c>
       <c r="C8" s="1">
@@ -849,10 +939,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>988.5916666666667</v>
       </c>
       <c r="C9" s="1">
@@ -878,10 +968,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>653.13333333333333</v>
       </c>
       <c r="C10" s="1">
@@ -907,10 +997,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>479.3416666666667</v>
       </c>
       <c r="C11" s="1">
@@ -936,10 +1026,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>1198.3541666666667</v>
       </c>
       <c r="C12" s="1">
@@ -965,10 +1055,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>807.92916666666667</v>
       </c>
       <c r="C13" s="1">
@@ -994,10 +1084,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>1623.1333333333334</v>
       </c>
       <c r="C14" s="1">
@@ -1023,10 +1113,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>3398.6375000000003</v>
       </c>
       <c r="C15" s="1">
@@ -1052,10 +1142,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>920.69166666666672</v>
       </c>
       <c r="C16" s="1">
@@ -1081,10 +1171,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>957.875</v>
       </c>
       <c r="C17" s="1">
@@ -1110,10 +1200,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>1721.75</v>
       </c>
       <c r="C18" s="1">
@@ -1139,10 +1229,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>529.86250000000007</v>
       </c>
       <c r="C19" s="1">
@@ -1168,10 +1258,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>1799.7541666666666</v>
       </c>
       <c r="C20" s="1">
@@ -1197,10 +1287,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>921.9041666666667</v>
       </c>
       <c r="C21" s="1">
@@ -1226,10 +1316,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>619.58749999999998</v>
       </c>
       <c r="C22" s="1">
@@ -1255,10 +1345,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>413.86666666666673</v>
       </c>
       <c r="C23" s="1">
@@ -1284,10 +1374,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>804.69583333333333</v>
       </c>
       <c r="C24" s="1">
@@ -1313,10 +1403,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>521.375</v>
       </c>
       <c r="C25" s="1">
@@ -1342,10 +1432,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>977.67916666666667</v>
       </c>
       <c r="C26" s="1">
@@ -1371,10 +1461,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="A27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="3">
         <v>732.35</v>
       </c>
       <c r="C27" s="1">
@@ -1400,10 +1490,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3">
         <v>970.80833333333339</v>
       </c>
       <c r="C28" s="1">
@@ -1429,10 +1519,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3">
         <v>1416.2</v>
       </c>
       <c r="C29" s="1">
@@ -1458,10 +1548,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3">
         <v>1087.2083333333333</v>
       </c>
       <c r="C30" s="1">
@@ -1487,10 +1577,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
         <v>419.52500000000003</v>
       </c>
       <c r="C31" s="1">
@@ -1516,10 +1606,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="A32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="3">
         <v>645.85833333333335</v>
       </c>
       <c r="C32" s="1">
@@ -1545,10 +1635,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
         <v>431.24583333333334</v>
       </c>
       <c r="C33" s="1">
@@ -1574,10 +1664,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
         <v>1468.3374999999999</v>
       </c>
       <c r="C34" s="1">
@@ -1603,10 +1693,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
         <v>797.82499999999993</v>
       </c>
       <c r="C35" s="1">
@@ -1632,10 +1722,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3">
         <v>670.51250000000005</v>
       </c>
       <c r="C36" s="1">
@@ -1661,10 +1751,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="A37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
         <v>1203.2041666666667</v>
       </c>
       <c r="C37" s="1">
@@ -1690,10 +1780,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3">
         <v>2596.3666666666668</v>
       </c>
       <c r="C38" s="1">
@@ -1719,10 +1809,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3">
         <v>1057.7041666666667</v>
       </c>
       <c r="C39" s="1">
@@ -1748,10 +1838,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3">
         <v>2199.0708333333337</v>
       </c>
       <c r="C40" s="1">
@@ -1777,10 +1867,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3">
         <v>2162.2916666666665</v>
       </c>
       <c r="C41" s="1">
@@ -1806,10 +1896,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3">
         <v>1980.8208333333334</v>
       </c>
       <c r="C42" s="1">
@@ -1835,10 +1925,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="3">
         <v>725.07499999999993</v>
       </c>
       <c r="C43" s="1">
@@ -1864,10 +1954,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="3">
         <v>963.12916666666672</v>
       </c>
       <c r="C44" s="1">
@@ -1893,10 +1983,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="3">
         <v>1277.5708333333334</v>
       </c>
       <c r="C45" s="1">
@@ -1922,10 +2012,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3">
         <v>970</v>
       </c>
       <c r="C46" s="1">
@@ -1951,10 +2041,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="A47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="3">
         <v>1560.4875000000002</v>
       </c>
       <c r="C47" s="1">
@@ -1980,10 +2070,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="A48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="3">
         <v>1489.7583333333334</v>
       </c>
       <c r="C48" s="1">
@@ -2009,10 +2099,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3">
         <v>242.5</v>
       </c>
       <c r="C49" s="1">
@@ -2038,10 +2128,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
         <v>1048.0041666666668</v>
       </c>
       <c r="C50" s="1">
@@ -2067,10 +2157,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
         <v>758.62083333333339</v>
       </c>
       <c r="C51" s="1">
@@ -2096,10 +2186,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3">
         <v>6397.958333333333</v>
       </c>
       <c r="C52" s="1">
@@ -2125,10 +2215,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
         <v>2094.3916666666669</v>
       </c>
       <c r="C53" s="1">
@@ -2154,10 +2244,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
         <v>1851.4875000000002</v>
       </c>
       <c r="C54" s="1">
@@ -2183,10 +2273,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3">
         <v>1063.3625</v>
       </c>
       <c r="C55" s="1">
@@ -2212,10 +2302,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3">
         <v>458.72916666666669</v>
       </c>
       <c r="C56" s="1">
@@ -2241,10 +2331,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
         <v>2983.9625000000001</v>
       </c>
       <c r="C57" s="1">
@@ -2270,10 +2360,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3">
         <v>722.65000000000009</v>
       </c>
       <c r="C58" s="1">
@@ -2299,10 +2389,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
         <v>1557.6583333333335</v>
       </c>
       <c r="C59" s="1">
@@ -2328,10 +2418,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3">
         <v>669.70416666666665</v>
       </c>
       <c r="C60" s="1">
@@ -2357,10 +2447,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="1">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3">
         <v>640.20000000000005</v>
       </c>
       <c r="C61" s="1">
@@ -2386,10 +2476,10 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
         <v>902.9083333333333</v>
       </c>
       <c r="C62" s="1">
@@ -2415,10 +2505,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="1">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3">
         <v>1460.2541666666666</v>
       </c>
       <c r="C63" s="1">
@@ -2444,10 +2534,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
         <v>1160.7666666666667</v>
       </c>
       <c r="C64" s="1">
@@ -2473,10 +2563,10 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3">
         <v>1197.95</v>
       </c>
       <c r="C65" s="1">
@@ -2502,10 +2592,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3">
         <v>858.85416666666663</v>
       </c>
       <c r="C66" s="1">
@@ -2531,10 +2621,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3">
         <v>926.35</v>
       </c>
       <c r="C67" s="1">
@@ -2560,10 +2650,10 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3">
         <v>1047.6000000000001</v>
       </c>
       <c r="C68" s="1">
@@ -2589,10 +2679,10 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3">
         <v>797.01666666666677</v>
       </c>
       <c r="C69" s="1">
@@ -2618,10 +2708,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="1">
+      <c r="A70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3">
         <v>1048.0041666666668</v>
       </c>
       <c r="C70" s="1">
@@ -2647,10 +2737,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="1">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3">
         <v>406.5916666666667</v>
       </c>
       <c r="C71" s="1">
@@ -2676,10 +2766,10 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="1">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3">
         <v>987.7833333333333</v>
       </c>
       <c r="C72" s="1">
@@ -2705,10 +2795,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3">
         <v>1410.1375</v>
       </c>
       <c r="C73" s="1">
@@ -2734,10 +2824,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3">
         <v>1890.6916666666666</v>
       </c>
       <c r="C74" s="1">
@@ -2763,10 +2853,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="1">
+      <c r="A75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="3">
         <v>1175.3166666666668</v>
       </c>
       <c r="C75" s="1">
@@ -2792,10 +2882,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="1">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
         <v>559.36666666666667</v>
       </c>
       <c r="C76" s="1">
@@ -2821,10 +2911,10 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
         <v>1775.1000000000001</v>
       </c>
       <c r="C77" s="1">
@@ -2850,10 +2940,10 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="1">
+      <c r="A78" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
         <v>1013.6500000000001</v>
       </c>
       <c r="C78" s="1">
@@ -2879,10 +2969,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="1">
+      <c r="A79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
         <v>1965.8666666666668</v>
       </c>
       <c r="C79" s="1">
@@ -2908,10 +2998,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="1">
+      <c r="A80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
         <v>1137.325</v>
       </c>
       <c r="C80" s="1">
@@ -2937,10 +3027,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="1">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
         <v>409.01666666666665</v>
       </c>
       <c r="C81" s="1">
@@ -2966,10 +3056,10 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="1">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
         <v>568.25833333333333</v>
       </c>
       <c r="C82" s="1">
@@ -2995,10 +3085,10 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="1">
+      <c r="A83" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
         <v>791.76249999999993</v>
       </c>
       <c r="C83" s="1">
@@ -3024,10 +3114,10 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="1">
+      <c r="A84" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
         <v>1269.0833333333333</v>
       </c>
       <c r="C84" s="1">
@@ -3053,10 +3143,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
         <v>1265.4458333333334</v>
       </c>
       <c r="C85" s="1">
@@ -3082,10 +3172,10 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="1">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
         <v>2077.0125000000003</v>
       </c>
       <c r="C86" s="1">
@@ -3111,10 +3201,10 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="1">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
         <v>2150.5708333333337</v>
       </c>
       <c r="C87" s="1">
@@ -3140,10 +3230,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="1">
+      <c r="A88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
         <v>2021.6416666666667</v>
       </c>
       <c r="C88" s="1">
@@ -3169,10 +3259,10 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="1">
+      <c r="A89" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
         <v>759.42916666666667</v>
       </c>
       <c r="C89" s="1">
@@ -3198,10 +3288,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="1">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
         <v>1388.3125</v>
       </c>
       <c r="C90" s="1">
@@ -3227,10 +3317,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="1">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
         <v>444.98750000000001</v>
       </c>
       <c r="C91" s="1">
@@ -3256,10 +3346,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="1">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
         <v>596.55000000000007</v>
       </c>
       <c r="C92" s="1">
@@ -3285,10 +3375,10 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="1">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
         <v>1076.7</v>
       </c>
       <c r="C93" s="1">
@@ -3314,10 +3404,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="1">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
         <v>3078.5375000000004</v>
       </c>
       <c r="C94" s="1">
@@ -3343,10 +3433,10 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="1">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
         <v>2599.1958333333337</v>
       </c>
       <c r="C95" s="1">
@@ -3372,10 +3462,10 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="1">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
         <v>715.7791666666667</v>
       </c>
       <c r="C96" s="1">
@@ -3401,10 +3491,10 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" s="1">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
         <v>864.10833333333346</v>
       </c>
       <c r="C97" s="1">
@@ -3430,10 +3520,10 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="1">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
         <v>794.5916666666667</v>
       </c>
       <c r="C98" s="1">
@@ -3459,10 +3549,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" s="1">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
         <v>908.56666666666672</v>
       </c>
       <c r="C99" s="1">
@@ -3488,10 +3578,10 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="1">
+      <c r="A100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="3">
         <v>959.08750000000009</v>
       </c>
       <c r="C100" s="1">
@@ -3517,10 +3607,10 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="1">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
         <v>1117.1166666666666</v>
       </c>
       <c r="C101" s="1">
@@ -3546,10 +3636,10 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="1">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
         <v>603.42083333333335</v>
       </c>
       <c r="C102" s="1">
@@ -3575,10 +3665,10 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="1">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
         <v>1044.3666666666666</v>
       </c>
       <c r="C103" s="1">
@@ -3604,10 +3694,10 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" s="1">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
         <v>616.35416666666663</v>
       </c>
       <c r="C104" s="1">
@@ -3633,10 +3723,10 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
         <v>286.55416666666667</v>
       </c>
       <c r="C105" s="1">
@@ -3662,10 +3752,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
         <v>2056.4</v>
       </c>
       <c r="C106" s="1">
@@ -3691,10 +3781,10 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="1">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
         <v>708.9083333333333</v>
       </c>
       <c r="C107" s="1">
@@ -3720,10 +3810,10 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="1">
+      <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="3">
         <v>713.75833333333333</v>
       </c>
       <c r="C108" s="1">
@@ -3749,10 +3839,10 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="1">
+      <c r="A109" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
         <v>473.2791666666667</v>
       </c>
       <c r="C109" s="1">
@@ -3778,10 +3868,10 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="1">
+      <c r="A110" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
         <v>1676.4833333333333</v>
       </c>
       <c r="C110" s="1">
@@ -3807,10 +3897,10 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111" s="1">
+      <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
         <v>753.36666666666667</v>
       </c>
       <c r="C111" s="1">
@@ -3836,10 +3926,10 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112" s="1">
+      <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="3">
         <v>706.88749999999993</v>
       </c>
       <c r="C112" s="1">
@@ -3865,10 +3955,10 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113" s="1">
+      <c r="A113" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="3">
         <v>1066.5958333333333</v>
       </c>
       <c r="C113" s="1">
@@ -3894,10 +3984,10 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="1">
+      <c r="A114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="3">
         <v>1020.9250000000001</v>
       </c>
       <c r="C114" s="1">
@@ -3923,10 +4013,10 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115" s="1">
+      <c r="A115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="3">
         <v>814.80000000000007</v>
       </c>
       <c r="C115" s="1">
@@ -3952,10 +4042,10 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116" s="1">
+      <c r="A116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" s="3">
         <v>548.85833333333335</v>
       </c>
       <c r="C116" s="1">
@@ -3981,10 +4071,10 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" s="1">
+      <c r="A117" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="3">
         <v>414.27083333333331</v>
       </c>
       <c r="C117" s="1">
@@ -4007,6 +4097,296 @@
       </c>
       <c r="I117" s="1">
         <v>187.91666666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1303.4375</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="E118" s="1">
+        <v>6181.25</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1155.6249999999998</v>
+      </c>
+      <c r="I118" s="1">
+        <v>591.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1098.5250000000001</v>
+      </c>
+      <c r="C119" s="1">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="D119" s="1">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="E119" s="1">
+        <v>5209.5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="G119" s="1">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="H119" s="1">
+        <v>973.94999999999993</v>
+      </c>
+      <c r="I119" s="1">
+        <v>498.29999999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1286.4625000000001</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1140.575</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1140.575</v>
+      </c>
+      <c r="E120" s="1">
+        <v>6100.75</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1140.575</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1140.575</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1140.575</v>
+      </c>
+      <c r="I120" s="1">
+        <v>583.54999999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" s="3">
+        <v>860.4708333333333</v>
+      </c>
+      <c r="C121" s="1">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="D121" s="1">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4080.5833333333335</v>
+      </c>
+      <c r="F121" s="1">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="G121" s="1">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="H121" s="1">
+        <v>762.89166666666654</v>
+      </c>
+      <c r="I121" s="1">
+        <v>390.31666666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1036.2833333333333</v>
+      </c>
+      <c r="C122" s="1">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="D122" s="1">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4914.333333333333</v>
+      </c>
+      <c r="F122" s="1">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="G122" s="1">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="H122" s="1">
+        <v>918.76666666666654</v>
+      </c>
+      <c r="I122" s="1">
+        <v>470.06666666666661</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1318.7958333333333</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="E123" s="1">
+        <v>6254.083333333333</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1169.2416666666666</v>
+      </c>
+      <c r="I123" s="1">
+        <v>598.21666666666658</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2233.8291666666669</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="E124" s="1">
+        <v>10593.416666666666</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1980.5083333333332</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1013.2833333333333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="3">
+        <v>9665.6458333333339</v>
+      </c>
+      <c r="C125" s="1">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="E125" s="1">
+        <v>45837.083333333336</v>
+      </c>
+      <c r="F125" s="1">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="G125" s="1">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="H125" s="1">
+        <v>8569.5416666666661</v>
+      </c>
+      <c r="I125" s="1">
+        <v>4384.416666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2273.8416666666667</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="E126" s="1">
+        <v>10783.166666666666</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="H126" s="1">
+        <v>2015.9833333333333</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1031.4333333333332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1047.1958333333334</v>
+      </c>
+      <c r="C127" s="1">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="D127" s="1">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="E127" s="1">
+        <v>4966.083333333333</v>
+      </c>
+      <c r="F127" s="1">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="G127" s="1">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="H127" s="1">
+        <v>928.44166666666661</v>
+      </c>
+      <c r="I127" s="1">
+        <v>475.01666666666665</v>
       </c>
     </row>
   </sheetData>
